--- a/Especif_Tecnicas/LEDs_Parametros_Fallas.xlsx
+++ b/Especif_Tecnicas/LEDs_Parametros_Fallas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Estado</t>
   </si>
@@ -32,21 +32,12 @@
     <t>Rojo</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>[a] La duración prevista del cartucho es el rendimiento del cartucho de tóner previsto o estimado, que indica la capacidad media de impresión y se ha diseñado según la norma ISO/IEC 19752. El número de páginas depende del entorno operativo, los intervalos de impresión, las imágenes y el tipo y tamaño del material. Puede quedar una cantidad de tóner en el cartucho aunque el LED rojo esté encendido y la impresora deje de imprimir.</t>
-  </si>
-  <si>
     <t>* Para resolver el error, analice el mensaje de error y sus instrucciones en la sección de solución de problemas.</t>
   </si>
   <si>
     <t>Descripción de indicadores de LEDs de estado</t>
   </si>
   <si>
-    <t>LEDs de estado WIFI</t>
-  </si>
-  <si>
     <t>El color de los LED indica el estado actual del equipo uCom.</t>
   </si>
   <si>
@@ -92,12 +83,6 @@
     <t>El led parpadea rápidamente cuando esta transmitiendo datos.</t>
   </si>
   <si>
-    <t>Encendidi fijo</t>
-  </si>
-  <si>
-    <t>Indica modo AP (programacion).</t>
-  </si>
-  <si>
     <t> 3 LEDS de estado</t>
   </si>
   <si>
@@ -122,18 +107,12 @@
     <t>Fijo con destellos</t>
   </si>
   <si>
-    <t>Indica nivel de señal para un minimo de 20% con 1 destello y hasta un maximo del 100% con 5 detellos en rojo.</t>
-  </si>
-  <si>
     <t>Pulsos</t>
   </si>
   <si>
     <t>Reservado</t>
   </si>
   <si>
-    <t xml:space="preserve">En proce de conexión y configuracion de la red. </t>
-  </si>
-  <si>
     <t>Indica conexión correcta a la Red.</t>
   </si>
   <si>
@@ -144,6 +123,73 @@
   </si>
   <si>
     <t>4 pulsos rojos rapido sobre el verde fijo, indican la transmision de paquetes de datos o eventos desde el equipo al servidor.</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>* Algunos indicadores LED podrían no estar disponibles en función del modelo actual.</t>
+  </si>
+  <si>
+    <t>* También podrá resolver idicaciones de error siguiendo las instrucciones indicadas en la manual de fallas.</t>
+  </si>
+  <si>
+    <t>* Si el problema no desaparece, póngase en contacto con su distribuidor o servicio tecnico.</t>
+  </si>
+  <si>
+    <t>PARAMETROS CONFIGURABLES</t>
+  </si>
+  <si>
+    <t>Apagado</t>
+  </si>
+  <si>
+    <t>Conectado correctamente a la Red WiFi</t>
+  </si>
+  <si>
+    <t>No conectado al servidor o servidor no responde</t>
+  </si>
+  <si>
+    <t>Tipo de Configuracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parametro </t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Indica modo AP (programación).</t>
+  </si>
+  <si>
+    <t>No encontro o no pudo conectar a las redes WiFi configuradas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En proceso de conexión y configuracion de la red. </t>
+  </si>
+  <si>
+    <t>1 pulso en ambar despues del envio de datos indica la recepcion de respuesta ACK desde el servidor.</t>
+  </si>
+  <si>
+    <t>Indica nivel de señal para un minimo de 20% con 1 destello y hasta un maximo del 100% con 5 destellos en rojo.</t>
+  </si>
+  <si>
+    <t>* También podrá resolver indicaciones de error siguiendo las instrucciones indicadas en la manual de fallas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LEDs de estado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WIFI</t>
+    </r>
   </si>
   <si>
     <r>
@@ -153,28 +199,13 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="8"/>
+        <sz val="6.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>1 pulso en ambar despues del envio de datos iindica la recepcion de respuesta ACK desde el servidor.</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>* Algunos indicadores LED podrían no estar disponibles en función del modelo actual.</t>
-  </si>
-  <si>
-    <t>* También podrá resolver idicaciones de error siguiendo las instrucciones indicadas en la manual de fallas.</t>
-  </si>
-  <si>
-    <t>* Si el problema no desaparece, póngase en contacto con su distribuidor o servicio tecnico.</t>
   </si>
   <si>
     <r>
@@ -184,20 +215,21 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="8"/>
+        <sz val="6.5"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>GSM</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="8"/>
+        <sz val="6.5"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (GPRS/EDGE) - </t>
     </r>
@@ -205,20 +237,21 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="8"/>
+        <sz val="6.5"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>UMTS</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="8"/>
+        <sz val="6.5"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (3G) - </t>
     </r>
@@ -226,46 +259,31 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="8"/>
+        <sz val="6.5"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>LTE</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="8"/>
+        <sz val="6.5"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (4G)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>[b] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Solo en modo inalámbrico (consulte Funciones según el modelo).</t>
-    </r>
-  </si>
-  <si>
-    <t>PARAMETROS CONFIGURABLES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,14 +312,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -311,53 +321,11 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FF006699"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -369,13 +337,96 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF006699"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6.5"/>
+      <color rgb="FF006699"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6.5"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="6.5"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,22 +475,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -659,183 +707,219 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -862,15 +946,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>222164</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>561976</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -888,8 +972,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="152400" y="1238250"/>
-          <a:ext cx="314325" cy="352425"/>
+          <a:off x="222164" y="1152525"/>
+          <a:ext cx="339812" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1232,410 +1316,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="33"/>
+      <c r="B7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="33"/>
+      <c r="B8" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A13" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="41"/>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="42"/>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A13" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1">
       <c r="A14" s="50"/>
-      <c r="B14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>20</v>
+      <c r="B14" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1">
       <c r="A15" s="50"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>22</v>
+      <c r="B15" s="54"/>
+      <c r="C15" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1">
       <c r="A16" s="50"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>24</v>
+      <c r="B16" s="54"/>
+      <c r="C16" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1">
       <c r="A17" s="50"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>26</v>
+      <c r="B17" s="54"/>
+      <c r="C17" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1">
       <c r="A18" s="50"/>
-      <c r="B18" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="36"/>
+      <c r="B18" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1">
       <c r="A19" s="50"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>11</v>
+      <c r="D19" s="55" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1">
       <c r="A20" s="50"/>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A21" s="50"/>
+      <c r="B21" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A22" s="50"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A26" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A27" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A28" s="68"/>
+      <c r="B28" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A29" s="68"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" thickBot="1">
+      <c r="A30" s="68"/>
+      <c r="B30" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A31" s="74"/>
+      <c r="B31" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A32" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A33" s="68"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A26" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="26" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A34" s="68"/>
+      <c r="B34" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20.25" thickBot="1">
+      <c r="A35" s="68"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" thickBot="1">
+      <c r="A36" s="68"/>
+      <c r="B36" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A37" s="74"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="73" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A31" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="24" thickBot="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A36" s="51"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="31"/>
-    </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A37:D37"/>
+  <mergeCells count="22">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1646,77 +1742,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:7">
-      <c r="A4" s="41"/>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
